--- a/hutool/Import_Model.xlsx
+++ b/hutool/Import_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solor\Desktop\Code\future\bravo-demos\hutool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Db" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
   <si>
     <t>dbChineseName</t>
   </si>
@@ -96,9 +96,6 @@
     <t>tableChineseName</t>
   </si>
   <si>
-    <t>dbInfo</t>
-  </si>
-  <si>
     <t>blocks</t>
   </si>
   <si>
@@ -255,127 +252,183 @@
     <t>columnName</t>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试导入excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mysql-5.17-version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1542348642677</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试表格数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>管理表,业务表,测试表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_shcema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db测试-用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1542348642677</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试表格数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin2</t>
+    <t>模型表1,模型表2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务表1,业务表2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理类型1,物理类型2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.240.201</t>
+  </si>
+  <si>
+    <t>192.168.240.201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.19-log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whmtest</t>
+  </si>
+  <si>
+    <t>whmtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL Community Server (GPL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>658</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.240.201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whmtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depId(depId),name(name),old(old),PRIMARY(empId),sex(sex),task(task)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select `whmtest`.`employee`.`empId` AS `empId`,`whmtest`.`employee`.`name` AS `name`,`whmtest`.`employee`.`sex` AS `sex`,`whmtest`.`employee`.`old` AS `old`,`whmtest`.`employee`.`task` AS `task`,`whmtest`.`employee`.`depId` AS `depId` from `whmtest`.`employee`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3306</t>
+  </si>
+  <si>
+    <t>whmtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whmtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试column2-table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试column1-view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名字-view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名字-table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -755,7 +808,7 @@
     <col min="1" max="16384" width="16" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -778,69 +831,63 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1">
         <v>3306</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="L2" s="3">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3">
         <v>1</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>83</v>
+      <c r="M2" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -854,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -910,43 +957,43 @@
         <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>12</v>
@@ -957,10 +1004,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1">
         <v>3306</v>
@@ -969,53 +1016,53 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="V2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1027,6 +1074,9 @@
       </c>
       <c r="Y2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1038,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1049,93 +1099,89 @@
     <col min="1" max="16384" width="16" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3306</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="1">
-        <v>3306</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1149,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AO19" sqref="AO19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1172,19 +1218,19 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -1193,123 +1239,123 @@
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3306</v>
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -1327,13 +1373,13 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>13</v>
@@ -1348,10 +1394,10 @@
         <v>13</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>13</v>
@@ -1399,10 +1445,10 @@
         <v>13</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>13</v>
@@ -1423,33 +1469,33 @@
         <v>13</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3306</v>
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
@@ -1458,16 +1504,16 @@
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>13</v>
@@ -1482,88 +1528,88 @@
         <v>13</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AT3" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/hutool/Import_Model.xlsx
+++ b/hutool/Import_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Db" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="126">
   <si>
     <t>dbChineseName</t>
   </si>
@@ -99,336 +99,354 @@
     <t>blocks</t>
   </si>
   <si>
+    <t>tableComment</t>
+  </si>
+  <si>
+    <t>combinationIndexDetail</t>
+  </si>
+  <si>
+    <t>dateColNum</t>
+  </si>
+  <si>
+    <t>modelType</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>idxNum</t>
+  </si>
+  <si>
+    <t>otherType</t>
+  </si>
+  <si>
+    <t>charColNum</t>
+  </si>
+  <si>
+    <t>numColNum</t>
+  </si>
+  <si>
+    <t>textColNum</t>
+  </si>
+  <si>
+    <t>viewComment</t>
+  </si>
+  <si>
+    <t>viewName</t>
+  </si>
+  <si>
+    <t>viewChineseName</t>
+  </si>
+  <si>
+    <t>fkPos</t>
+  </si>
+  <si>
+    <t>pkName</t>
+  </si>
+  <si>
+    <t>nullable</t>
+  </si>
+  <si>
+    <t>pkPos</t>
+  </si>
+  <si>
+    <t>isUnique</t>
+  </si>
+  <si>
+    <t>uniNum</t>
+  </si>
+  <si>
+    <t>minLen</t>
+  </si>
+  <si>
+    <t>maxLen</t>
+  </si>
+  <si>
+    <t>uniPos</t>
+  </si>
+  <si>
+    <t>columnChineseName</t>
+  </si>
+  <si>
+    <t>columnComment</t>
+  </si>
+  <si>
+    <t>dataPrecision</t>
+  </si>
+  <si>
+    <t>numDistinct</t>
+  </si>
+  <si>
+    <t>isIndex</t>
+  </si>
+  <si>
+    <t>columnType</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>isUPk</t>
+  </si>
+  <si>
+    <t>isFk</t>
+  </si>
+  <si>
+    <t>uniName</t>
+  </si>
+  <si>
+    <t>enumDomains</t>
+  </si>
+  <si>
+    <t>calculateWay</t>
+  </si>
+  <si>
+    <t>isCPk</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>sampleSize</t>
+  </si>
+  <si>
+    <t>fixLen</t>
+  </si>
+  <si>
+    <t>fkRefTable</t>
+  </si>
+  <si>
+    <t>tableType</t>
+  </si>
+  <si>
+    <t>constraintType</t>
+  </si>
+  <si>
+    <t>pkNum</t>
+  </si>
+  <si>
+    <t>isDate</t>
+  </si>
+  <si>
+    <t>fkName</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>indexDetail</t>
+  </si>
+  <si>
+    <t>isPk</t>
+  </si>
+  <si>
+    <t>fkRefColumn</t>
+  </si>
+  <si>
+    <t>columnName</t>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1542348642677</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试表格数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.240.201</t>
+  </si>
+  <si>
+    <t>192.168.240.201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.19-log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whmtest</t>
+  </si>
+  <si>
+    <t>whmtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL Community Server (GPL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>658</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.240.201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whmtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depId(depId),name(name),old(old),PRIMARY(empId),sex(sex),task(task)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select `whmtest`.`employee`.`empId` AS `empId`,`whmtest`.`employee`.`name` AS `name`,`whmtest`.`employee`.`sex` AS `sex`,`whmtest`.`employee`.`old` AS `old`,`whmtest`.`employee`.`task` AS `task`,`whmtest`.`employee`.`depId` AS `depId` from `whmtest`.`employee`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3306</t>
+  </si>
+  <si>
+    <t>whmtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whmtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试column2-table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试column1-view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名字-view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名字-table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industryType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>physicalType</t>
-  </si>
-  <si>
-    <t>tableComment</t>
-  </si>
-  <si>
-    <t>combinationIndexDetail</t>
-  </si>
-  <si>
-    <t>dateColNum</t>
-  </si>
-  <si>
-    <t>modelType</t>
-  </si>
-  <si>
-    <t>rows</t>
-  </si>
-  <si>
-    <t>idxNum</t>
-  </si>
-  <si>
-    <t>otherType</t>
-  </si>
-  <si>
-    <t>charColNum</t>
-  </si>
-  <si>
-    <t>numColNum</t>
-  </si>
-  <si>
-    <t>textColNum</t>
-  </si>
-  <si>
-    <t>viewComment</t>
-  </si>
-  <si>
-    <t>viewName</t>
-  </si>
-  <si>
-    <t>viewChineseName</t>
-  </si>
-  <si>
-    <t>fkPos</t>
-  </si>
-  <si>
-    <t>pkName</t>
-  </si>
-  <si>
-    <t>nullable</t>
-  </si>
-  <si>
-    <t>pkPos</t>
-  </si>
-  <si>
-    <t>isUnique</t>
-  </si>
-  <si>
-    <t>uniNum</t>
-  </si>
-  <si>
-    <t>minLen</t>
-  </si>
-  <si>
-    <t>maxLen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理类型-1,物理类型-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型-1,业务类型-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务表1,业务表2,业务类型-1,业务类型-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务表1,业务表2,业务类型-1,业务类型-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型-1,业务类型-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>technicalType</t>
-  </si>
-  <si>
-    <t>uniPos</t>
-  </si>
-  <si>
-    <t>columnChineseName</t>
-  </si>
-  <si>
-    <t>columnComment</t>
-  </si>
-  <si>
-    <t>dataPrecision</t>
-  </si>
-  <si>
-    <t>numDistinct</t>
-  </si>
-  <si>
-    <t>isIndex</t>
-  </si>
-  <si>
-    <t>columnType</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>isUPk</t>
-  </si>
-  <si>
-    <t>isFk</t>
-  </si>
-  <si>
-    <t>uniName</t>
-  </si>
-  <si>
-    <t>enumDomains</t>
-  </si>
-  <si>
-    <t>calculateWay</t>
-  </si>
-  <si>
-    <t>isCPk</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>sampleSize</t>
-  </si>
-  <si>
-    <t>fixLen</t>
-  </si>
-  <si>
-    <t>fkRefTable</t>
-  </si>
-  <si>
-    <t>tableType</t>
-  </si>
-  <si>
-    <t>constraintType</t>
-  </si>
-  <si>
-    <t>pkNum</t>
-  </si>
-  <si>
-    <t>isDate</t>
-  </si>
-  <si>
-    <t>fkName</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>indexDetail</t>
-  </si>
-  <si>
-    <t>isPk</t>
-  </si>
-  <si>
-    <t>fkRefColumn</t>
-  </si>
-  <si>
-    <t>columnName</t>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1542348642677</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试表格数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理表,业务表,测试表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型表1,模型表2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务表1,业务表2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理类型1,物理类型2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.240.201</t>
-  </si>
-  <si>
-    <t>192.168.240.201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.7.19-log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whmtest</t>
-  </si>
-  <si>
-    <t>whmtest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL Community Server (GPL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>658</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.240.201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whmtest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depId(depId),name(name),old(old),PRIMARY(empId),sex(sex),task(task)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select `whmtest`.`employee`.`empId` AS `empId`,`whmtest`.`employee`.`name` AS `name`,`whmtest`.`employee`.`sex` AS `sex`,`whmtest`.`employee`.`old` AS `old`,`whmtest`.`employee`.`task` AS `task`,`whmtest`.`employee`.`depId` AS `depId` from `whmtest`.`employee`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3306</t>
-  </si>
-  <si>
-    <t>whmtest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whmtest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试column2-table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试column1-view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名字-view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名字-table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术类型-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术类型-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +818,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -854,40 +872,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1">
         <v>3306</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L2" s="3">
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -901,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -960,40 +978,40 @@
         <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>12</v>
@@ -1004,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1">
         <v>3306</v>
@@ -1016,19 +1034,19 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>13</v>
@@ -1043,16 +1061,16 @@
         <v>13</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>13</v>
@@ -1060,9 +1078,7 @@
       <c r="T2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1092,7 @@
         <v>13</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1090,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1113,34 +1129,34 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -1151,37 +1167,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1">
         <v>3306</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1195,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1218,19 +1237,19 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -1239,377 +1258,383 @@
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AS2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="AQ3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT3" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
